--- a/resources/repository/Test1.xlsx
+++ b/resources/repository/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="4860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13545" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetail" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="CurrentInsurance" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="O1:AD6"/>
+  <oleSize ref="O1:Z7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>wanna execute?</t>
-  </si>
-  <si>
-    <t>werf</t>
   </si>
 </sst>
 </file>
@@ -566,7 +563,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,111 +781,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:36" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>35380</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="7">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1234569870</v>
-      </c>
-      <c r="V3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3">
-        <v>1231231231</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>49</v>
-      </c>
+    <row r="3" spans="1:36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="L3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="S3" s="7"/>
+      <c r="U3" s="6"/>
+      <c r="W3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -897,7 +812,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/repository/Test1.xlsx
+++ b/resources/repository/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13545" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13545" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetail" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="CurrentInsurance" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="O1:Z7"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>03820</t>
   </si>
   <si>
-    <t>jhgf</t>
-  </si>
-  <si>
     <t>VINNumber</t>
   </si>
   <si>
@@ -185,13 +182,34 @@
     <t>abcd@gmail.com</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
     <t>3GSCL53789S584216</t>
   </si>
   <si>
     <t>wanna execute?</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>prashant</t>
+  </si>
+  <si>
+    <t>dhar</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
@@ -257,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -278,6 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,88 +623,88 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
-        <v>37</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -691,10 +712,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3">
         <v>35380</v>
@@ -709,58 +730,58 @@
         <v>11</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
         <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="7">
         <v>17</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="6">
-        <v>1234569870</v>
+        <v>42</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="V2" t="s">
         <v>11</v>
       </c>
       <c r="W2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="s">
         <v>47</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>48</v>
       </c>
       <c r="AC2" t="s">
         <v>11</v>
@@ -769,41 +790,337 @@
         <v>1231231231</v>
       </c>
       <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3">
+        <v>35380</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="7">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3">
+        <v>1231231231</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AI3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3">
+        <v>35380</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="7">
+        <v>17</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="8"/>
-      <c r="L3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="S3" s="7"/>
-      <c r="U3" s="6"/>
-      <c r="W3" s="5"/>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4">
+        <v>1231231231</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3">
+        <v>35380</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="7">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5">
+        <v>1231231231</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="S6" s="7"/>
+      <c r="U6" s="6"/>
+      <c r="W6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3" display="abcd@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -827,25 +1144,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -855,41 +1172,41 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
@@ -920,56 +1237,56 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="7">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="7">
         <v>1234569870</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="7">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7">
         <v>1234569870</v>
@@ -1000,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1038,22 +1355,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1062,10 +1379,10 @@
         <v>1231231231</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1073,22 +1390,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1097,7 +1414,7 @@
         <v>1231231231</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1125,56 +1442,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
